--- a/Tiempos.xlsx
+++ b/Tiempos.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="14115" windowHeight="4440"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="14115" windowHeight="4440" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ordenador Juan Pablo" sheetId="1" r:id="rId1"/>
+    <sheet name="Ordenador Nacho" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Optimizaciones:</t>
   </si>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>Ejec 3</t>
+  </si>
+  <si>
+    <t>Ejec Base 10</t>
+  </si>
+  <si>
+    <t>Ejec Base 16</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Desenrollar bucles de Vector</t>
+  </si>
+  <si>
+    <t>Desenrollar bucles de Aux, con Try-Catch</t>
+  </si>
+  <si>
+    <t>Hacer un reserve para cada bucket</t>
+  </si>
+  <si>
+    <t>Hacer reserve para el bucket donde se concatena todo</t>
+  </si>
+  <si>
+    <t>Usar un move assignment al copiar estructuras que ya no se van a usar</t>
   </si>
 </sst>
 </file>
@@ -416,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +525,7 @@
         <v>2.6108300000000001E-4</v>
       </c>
       <c r="M3" t="str">
-        <f>"Mejora del "&amp;100-ROUND(L3/G3,4)*100&amp;"%"</f>
+        <f>IF(G3&gt;L3,"Mejora del "&amp;100-ROUND(L3/G3,4)*100&amp;"%","Empeora del "&amp;100-ROUND(G3/L3,4)*100&amp;"%")</f>
         <v>Mejora del 28.15%</v>
       </c>
       <c r="N3" t="s">
@@ -539,11 +563,11 @@
         <v>2.1414200000000002E-3</v>
       </c>
       <c r="M4" t="str">
-        <f>"Mejora del "&amp;ROUND(1-(L4/G4),4)*100&amp;"%"</f>
+        <f>IF(G4&gt;L4,"Mejora del "&amp;ROUND(1-L4/G4,4)*100&amp;"%","Empeora del "&amp;100-ROUND(G4/L4,4)*100&amp;"%")</f>
         <v>Mejora del 4.87%</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O3:O4" si="1">"Mejora del "&amp;100-ROUND(N4/L4,4)*100&amp;"%"</f>
+        <f>IF(L4&gt;N4,"Mejora del "&amp;100-ROUND(N4/L4,4)*100&amp;"%","Empeora del "&amp;100-ROUND(L4/N4,4)*100&amp;"%")</f>
         <v>Mejora del 100%</v>
       </c>
     </row>
@@ -572,25 +596,25 @@
         <v>6.4268199999999998E-3</v>
       </c>
       <c r="I5" t="str">
-        <f>"Mejora del "&amp;100-ROUND(H5/G5,4)*100&amp;"%"</f>
+        <f>IF(G5&gt;H5,"Mejora del "&amp;100-ROUND(H5/G5,4)*100&amp;"%","Empeora del "&amp;100-ROUND(G5/H5,4)*100&amp;"%")</f>
         <v>Mejora del 38.95%</v>
       </c>
       <c r="J5">
         <v>5.0651400000000001E-3</v>
       </c>
       <c r="K5" t="str">
-        <f>"Mejora del "&amp;100-ROUND(J5/H5,4)*100&amp;"%"</f>
+        <f>IF(H5&gt;J5,"Mejora del "&amp;100-ROUND(J5/H5,4)*100&amp;"%","Empeora del "&amp;100-ROUND(H5/J5,4)*100&amp;"%")</f>
         <v>Mejora del 21.19%</v>
       </c>
       <c r="L5">
         <v>4.8559099999999997E-3</v>
       </c>
       <c r="M5" t="str">
-        <f>"Mejora del "&amp;100-ROUND(L5/J5,4)*100&amp;"%"</f>
+        <f>IF(J5&gt;L5,"Mejora del "&amp;100-ROUND(L5/J5,4)*100&amp;"%","Empeora del "&amp;100-ROUND(J5/L5,4)*100&amp;"%")</f>
         <v>Mejora del 4.13%</v>
       </c>
       <c r="O5" t="str">
-        <f>"Mejora del "&amp;100-ROUND(N5/L5,4)*100&amp;"%"</f>
+        <f>IF(L5&gt;N5,"Mejora del "&amp;100-ROUND(N5/L5,4)*100&amp;"%","Empeora del "&amp;100-ROUND(L5/N5,4)*100&amp;"%")</f>
         <v>Mejora del 100%</v>
       </c>
     </row>
@@ -660,12 +684,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="49.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B4" si="0">MIN(D3:DR3)</f>
+        <v>4.5753100000000001E-4</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="1">IF(B3&gt;G3,"Empeora del "&amp;ROUND(1-G3/B3,4)*100&amp;"%","Mejora del "&amp;ROUND(1-B3/G3,4)*100&amp;"%")</f>
+        <v>Mejora del 5.45%</v>
+      </c>
+      <c r="G3">
+        <v>4.8391900000000003E-4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>4.5753100000000001E-4</v>
+      </c>
+      <c r="K3" t="str">
+        <f>IF(G3&gt;J3,"Mejora del "&amp;ROUND(1-J3/G3,4)*100&amp;"%","Empeora del "&amp;ROUND(1-G3/J3,4)*100&amp;"%")</f>
+        <v>Mejora del 5.45%</v>
+      </c>
+      <c r="L3">
+        <v>4.93867E-3</v>
+      </c>
+      <c r="M3" t="str">
+        <f>IF(J3&gt;L3,"Mejora del "&amp;100-ROUND(L3/J3,4)*100&amp;"%","Empeora del "&amp;100-ROUND(J3/L3,4)*100&amp;"%")</f>
+        <v>Empeora del 90.74%</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>MIN(D4:DR4)</f>
+        <v>6.1699699999999999E-4</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>Mejora del 84.42%</v>
+      </c>
+      <c r="G4">
+        <v>3.96E-3</v>
+      </c>
+      <c r="H4">
+        <v>6.25922E-4</v>
+      </c>
+      <c r="I4" t="str">
+        <f>IF(G4&gt;H4,"Mejora del "&amp;100-ROUND(H4/G4,4)*100&amp;"%","Empeora del "&amp;100-ROUND(G4/H4,4)*100&amp;"%")</f>
+        <v>Mejora del 84.19%</v>
+      </c>
+      <c r="N4">
+        <v>8.8533899999999996E-4</v>
+      </c>
+      <c r="O4" t="str">
+        <f>IF(H4&gt;N4,"Mejora del "&amp;100-ROUND(N4/H4,4)*100&amp;"%","Empeora del "&amp;100-ROUND(H4/N4,4)*100&amp;"%")</f>
+        <v>Empeora del 29.3%</v>
+      </c>
+      <c r="P4">
+        <v>6.2980999999999996E-4</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>IF(H4&gt;P4,"Mejora del "&amp;ROUND(1-P4/H4,4)*100&amp;"%","Empeora del "&amp;ROUND(1-H4/P4,4)*100&amp;"%")</f>
+        <v>Empeora del 0.62%</v>
+      </c>
+      <c r="R4">
+        <v>6.1699699999999999E-4</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(H4&gt;R4,"Mejora del "&amp;ROUND(1-R4/H4,4)*100&amp;"%","Empeora del "&amp;ROUND(1-H4/R4,4)*100&amp;"%")</f>
+        <v>Mejora del 1.43%</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>MIN(D5:DR5)</f>
+        <v>4.1232700000000001E-3</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IF(B5&gt;G5,"Empeora del "&amp;ROUND(1-G5/B5,4)*100&amp;"%","Mejora del "&amp;ROUND(1-B5/G5,4)*100&amp;"%")</f>
+        <v>Mejora del 56.27%</v>
+      </c>
+      <c r="G5">
+        <v>9.4299999999999991E-3</v>
+      </c>
+      <c r="H5">
+        <v>4.4312900000000001E-3</v>
+      </c>
+      <c r="I5" t="str">
+        <f>IF(G5&gt;H5,"Mejora del "&amp;100-ROUND(H5/G5,4)*100&amp;"%","Empeora del "&amp;100-ROUND(G5/H5,4)*100&amp;"%")</f>
+        <v>Mejora del 53.01%</v>
+      </c>
+      <c r="R5">
+        <v>4.1232700000000001E-3</v>
+      </c>
+      <c r="S5" t="str">
+        <f>IF(H5&gt;R5,"Mejora del "&amp;ROUND(1-R5/H5,4)*100&amp;"%","Empeora del "&amp;ROUND(1-H5/R5,4)*100&amp;"%")</f>
+        <v>Mejora del 6.95%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <f>B9^(-1)</f>
+        <v>1.3485359461981812</v>
+      </c>
+      <c r="D8" s="2">
+        <f>B10^(-1)</f>
+        <v>9.0120013725845904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <f>B3/B4</f>
+        <v>0.74154493457828807</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <f>C10^(-1)</f>
+        <v>6.6828039682526814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <f>B3/B5</f>
+        <v>0.11096314333041493</v>
+      </c>
+      <c r="C10" s="2">
+        <f>B4/B5</f>
+        <v>0.1496377874842055</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
